--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -75,7 +75,7 @@
     <t>convert Draw area elements to objects and use project DrawAreatoJSON to convert to json file</t>
   </si>
   <si>
-    <t>Clear unused reference in project Draw area</t>
+    <t>Clear unused references in project DrawArea</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Clear unused reference in project Draw area</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -414,20 +423,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -438,10 +447,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,10 +464,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -465,11 +480,11 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -480,10 +495,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -493,11 +511,11 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -507,11 +525,11 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -521,11 +539,11 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -536,6 +554,9 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -75,7 +75,19 @@
     <t>convert Draw area elements to objects and use project DrawAreatoJSON to convert to json file</t>
   </si>
   <si>
-    <t>Clear unused references in project DrawArea</t>
+    <t>Clear unused reference in project Draw area</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>In Analysis</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -423,11 +435,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -438,10 +450,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,10 +467,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -466,10 +484,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -480,10 +501,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -494,10 +518,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -508,10 +535,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -522,10 +552,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -536,6 +569,9 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>In progress</t>
-  </si>
-  <si>
-    <t>In Analysis</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +480,6 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -535,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -567,9 +561,6 @@
       </c>
       <c r="C10" t="s">
         <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rishabh and Shridhar</t>
+  </si>
+  <si>
+    <t>Tweeking formulae</t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +573,20 @@
       </c>
       <c r="E10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -93,14 +93,41 @@
     <t>Rishabh and Shridhar</t>
   </si>
   <si>
-    <t>Tweeking formulae</t>
+    <t>Tweaking formulae</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>Add controls to ToolBox</t>
+  </si>
+  <si>
+    <t>Move event from window to grid</t>
+  </si>
+  <si>
+    <t>Get DB connectivity to pull fields</t>
+  </si>
+  <si>
+    <t>Set Unique names to blocks</t>
+  </si>
+  <si>
+    <t>Add properties panel</t>
+  </si>
+  <si>
+    <t>Reethu</t>
+  </si>
+  <si>
+    <t>Medium #</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +135,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,13 +173,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,146 +483,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -579,6 +637,9 @@
       <c r="A11">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -589,8 +650,79 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -105,22 +105,19 @@
     <t>Move event from window to grid</t>
   </si>
   <si>
-    <t>Get DB connectivity to pull fields</t>
-  </si>
-  <si>
     <t>Set Unique names to blocks</t>
   </si>
   <si>
     <t>Add properties panel</t>
   </si>
   <si>
-    <t>Reethu</t>
-  </si>
-  <si>
     <t>Medium #</t>
   </si>
   <si>
     <t>Obsolete</t>
+  </si>
+  <si>
+    <t>Get DB connectivity to pull field's properties</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -627,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -689,21 +686,22 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>30</v>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -711,13 +709,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Solution is constantly watching for A json file change in whole folder, restrict it to watch A particular file.</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -118,6 +115,15 @@
   </si>
   <si>
     <t>Get DB connectivity to pull field's properties</t>
+  </si>
+  <si>
+    <t>Initial Commit</t>
+  </si>
+  <si>
+    <t>Easy ♭</t>
+  </si>
+  <si>
+    <t>Hard #</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +517,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -529,23 +552,23 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -562,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -579,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -596,7 +619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -607,26 +630,26 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -638,70 +661,81 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,13 +743,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
